--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/VENTAS CENTRAL  Nov-2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/VENTAS CENTRAL  Nov-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #11 NOVIEMBRE 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#15  ARCHIVO   2 0 2 2\CENTRAL #11 NOVIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -481,6 +481,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9001,8 +9008,8 @@
   </sheetPr>
   <dimension ref="A3:H255"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C223" sqref="C222:C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15604,8 +15611,8 @@
   </sheetPr>
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16355,12 +16362,298 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>